--- a/操作excel/工人工资表格/xianchanglaowugz.xlsx
+++ b/操作excel/工人工资表格/xianchanglaowugz.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/Usually/操作excel/工人工资表格/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7871246-1BEB-3244-A5D7-C611D6AEEC48}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37620" yWindow="2940" windowWidth="29820" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="26595" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="one" sheetId="1" r:id="rId1"/>
     <sheet name="two" sheetId="2" r:id="rId2"/>
+    <sheet name="empty" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -29,7 +24,7 @@
     <t>项目名称：</t>
   </si>
   <si>
-    <t>姓名</t>
+    <t>班组</t>
   </si>
   <si>
     <t>日                         期</t>
@@ -78,8 +73,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,21 +111,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -156,67 +481,344 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -474,32 +1076,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:AF4"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="3.66666666666667" defaultRowHeight="10.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
-    <col min="2" max="32" width="4.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="5.33203125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="5.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9.33203125" style="1" customWidth="1"/>
-    <col min="36" max="37" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="1" customWidth="1"/>
+    <col min="7" max="32" width="4.125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="5.33333333333333" style="1" customWidth="1"/>
+    <col min="34" max="34" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="35" max="35" width="9.33333333333333" style="1" customWidth="1"/>
+    <col min="36" max="37" width="3.66666666666667" style="1" customWidth="1"/>
     <col min="38" max="38" width="19.5" style="1" customWidth="1"/>
-    <col min="39" max="39" width="3.6640625" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="3.6640625" style="1"/>
+    <col min="39" max="39" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="3.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="30" customHeight="1">
+    <row r="1" ht="30" customHeight="1" spans="1:35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -538,282 +1145,16 @@
       <c r="AH1" s="7"/>
       <c r="AI1" s="7"/>
     </row>
-    <row r="2" spans="1:38" ht="25" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="25" customHeight="1" spans="1:35">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-    </row>
-    <row r="3" spans="1:38" ht="20" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="20" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2">
-        <v>8</v>
-      </c>
-      <c r="J4" s="2">
-        <v>9</v>
-      </c>
-      <c r="K4" s="2">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2">
-        <v>11</v>
-      </c>
-      <c r="M4" s="2">
-        <v>12</v>
-      </c>
-      <c r="N4" s="2">
-        <v>13</v>
-      </c>
-      <c r="O4" s="2">
-        <v>14</v>
-      </c>
-      <c r="P4" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>16</v>
-      </c>
-      <c r="R4" s="2">
-        <v>17</v>
-      </c>
-      <c r="S4" s="2">
-        <v>18</v>
-      </c>
-      <c r="T4" s="2">
-        <v>19</v>
-      </c>
-      <c r="U4" s="2">
-        <v>20</v>
-      </c>
-      <c r="V4" s="2">
-        <v>21</v>
-      </c>
-      <c r="W4" s="2">
-        <v>22</v>
-      </c>
-      <c r="X4" s="2">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>26</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>27</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>28</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>29</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="B3:AF3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AI4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1:AJ1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
-    <col min="2" max="32" width="4.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="5.33203125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="5.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9.33203125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="3.6640625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="19.5" style="1" customWidth="1"/>
-    <col min="38" max="16383" width="3.6640625" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="3.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="20" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="2"/>
-    </row>
-    <row r="2" spans="1:35" ht="20" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -835,115 +1176,414 @@
       <c r="Z2" s="10"/>
       <c r="AA2" s="10"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="2"/>
+      <c r="AI2" s="10"/>
     </row>
-    <row r="3" spans="1:35" ht="20" customHeight="1">
-      <c r="A3" s="10" t="s">
+    <row r="3" ht="20" customHeight="1" spans="1:38">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3">
         <v>11</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10" t="s">
+      <c r="M4" s="3">
         <v>12</v>
       </c>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="2"/>
+      <c r="N4" s="3">
+        <v>13</v>
+      </c>
+      <c r="O4" s="3">
+        <v>14</v>
+      </c>
+      <c r="P4" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>16</v>
+      </c>
+      <c r="R4" s="3">
+        <v>17</v>
+      </c>
+      <c r="S4" s="3">
+        <v>18</v>
+      </c>
+      <c r="T4" s="3">
+        <v>19</v>
+      </c>
+      <c r="U4" s="3">
+        <v>20</v>
+      </c>
+      <c r="V4" s="3">
+        <v>21</v>
+      </c>
+      <c r="W4" s="3">
+        <v>22</v>
+      </c>
+      <c r="X4" s="3">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>27</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>28</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>29</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>31</v>
+      </c>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
     </row>
-    <row r="4" spans="1:35" ht="20" customHeight="1">
-      <c r="A4" s="13" t="s">
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="B3:AF3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AI4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:AI4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.66666666666667" defaultRowHeight="10.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="9.33333333333333" style="1" customWidth="1"/>
+    <col min="2" max="32" width="4.66666666666667" style="1" customWidth="1"/>
+    <col min="33" max="33" width="5.33333333333333" style="1" customWidth="1"/>
+    <col min="34" max="34" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="35" max="35" width="9.33333333333333" style="1" customWidth="1"/>
+    <col min="36" max="36" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="37" max="37" width="19.5" style="1" customWidth="1"/>
+    <col min="38" max="16383" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="3.66666666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:35">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="3"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:35">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:35">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:35">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="13" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="13" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="13" t="s">
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="3"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="AE4:AH4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:AH1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:AH2"/>
     <mergeCell ref="A3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="AE4:AH4"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.66666666666667" defaultRowHeight="10.5"/>
+  <cols>
+    <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="1" customWidth="1"/>
+    <col min="7" max="32" width="4.125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="5.33333333333333" style="1" customWidth="1"/>
+    <col min="34" max="34" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="35" max="35" width="9.33333333333333" style="1" customWidth="1"/>
+    <col min="36" max="37" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="38" max="38" width="19.5" style="1" customWidth="1"/>
+    <col min="39" max="39" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="3.66666666666667" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/操作excel/工人工资表格/xianchanglaowugz.xlsx
+++ b/操作excel/工人工资表格/xianchanglaowugz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26595" windowHeight="12015"/>
+    <workbookView windowWidth="29820" windowHeight="14640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="one" sheetId="1" r:id="rId1"/>
@@ -75,8 +75,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -112,54 +112,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,6 +179,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -204,52 +249,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,187 +264,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,32 +482,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,11 +509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,11 +554,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,148 +584,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -766,54 +766,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1084,11 +1084,11 @@
   <sheetPr/>
   <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.66666666666667" defaultRowHeight="10.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="3.66964285714286" defaultRowHeight="8.8" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.625" style="1" customWidth="1"/>
@@ -1097,13 +1097,13 @@
     <col min="5" max="5" width="6" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.75" style="1" customWidth="1"/>
     <col min="7" max="32" width="4.125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="5.33333333333333" style="1" customWidth="1"/>
-    <col min="34" max="34" width="5.66666666666667" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9.33333333333333" style="1" customWidth="1"/>
-    <col min="36" max="37" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="33" max="33" width="5.33035714285714" style="1" customWidth="1"/>
+    <col min="34" max="34" width="5.66964285714286" style="1" customWidth="1"/>
+    <col min="35" max="35" width="9.33035714285714" style="1" customWidth="1"/>
+    <col min="36" max="37" width="3.66964285714286" style="1" customWidth="1"/>
     <col min="38" max="38" width="19.5" style="1" customWidth="1"/>
-    <col min="39" max="39" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="3.66666666666667" style="1"/>
+    <col min="39" max="39" width="3.66964285714286" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="3.66964285714286" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:35">
@@ -1358,17 +1358,17 @@
       <selection activeCell="A1" sqref="A1:AI4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.66666666666667" defaultRowHeight="10.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="3.66964285714286" defaultRowHeight="8.8" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="9.33333333333333" style="1" customWidth="1"/>
-    <col min="2" max="32" width="4.66666666666667" style="1" customWidth="1"/>
-    <col min="33" max="33" width="5.33333333333333" style="1" customWidth="1"/>
-    <col min="34" max="34" width="5.66666666666667" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9.33333333333333" style="1" customWidth="1"/>
-    <col min="36" max="36" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33035714285714" style="1" customWidth="1"/>
+    <col min="2" max="32" width="4.66964285714286" style="1" customWidth="1"/>
+    <col min="33" max="33" width="5.33035714285714" style="1" customWidth="1"/>
+    <col min="34" max="34" width="5.66964285714286" style="1" customWidth="1"/>
+    <col min="35" max="35" width="9.33035714285714" style="1" customWidth="1"/>
+    <col min="36" max="36" width="3.66964285714286" style="1" customWidth="1"/>
     <col min="37" max="37" width="19.5" style="1" customWidth="1"/>
-    <col min="38" max="16383" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="3.66666666666667" style="1"/>
+    <col min="38" max="16383" width="3.66964285714286" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="3.66964285714286" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:35">
@@ -1561,26 +1561,21 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.66666666666667" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="3.66964285714286" defaultRowHeight="8.8"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="1" customWidth="1"/>
-    <col min="7" max="32" width="4.125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="5.33333333333333" style="1" customWidth="1"/>
-    <col min="34" max="34" width="5.66666666666667" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9.33333333333333" style="1" customWidth="1"/>
-    <col min="36" max="37" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="2" max="32" width="4.64285714285714" style="1" customWidth="1"/>
+    <col min="33" max="33" width="5.33035714285714" style="1" customWidth="1"/>
+    <col min="34" max="34" width="5.66964285714286" style="1" customWidth="1"/>
+    <col min="35" max="35" width="9.33035714285714" style="1" customWidth="1"/>
+    <col min="36" max="37" width="3.66964285714286" style="1" customWidth="1"/>
     <col min="38" max="38" width="19.5" style="1" customWidth="1"/>
-    <col min="39" max="39" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="3.66666666666667" style="1"/>
+    <col min="39" max="39" width="3.66964285714286" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="3.66964285714286" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/操作excel/工人工资表格/xianchanglaowugz.xlsx
+++ b/操作excel/工人工资表格/xianchanglaowugz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29820" windowHeight="14640" activeTab="2"/>
+    <workbookView windowWidth="29820" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="one" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>劳务费明细表（点工）</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>日                         期</t>
+  </si>
+  <si>
+    <t>工时  汇总</t>
   </si>
   <si>
     <t>工日
@@ -75,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -125,6 +128,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -133,10 +150,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,6 +173,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -163,19 +219,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,36 +244,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,23 +252,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,186 +273,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -482,6 +485,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -505,6 +545,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,6 +594,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -553,183 +619,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +790,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1082,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AM4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3:AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.66964285714286" defaultRowHeight="8.8" outlineLevelRow="3"/>
@@ -1097,94 +1146,95 @@
     <col min="5" max="5" width="6" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.75" style="1" customWidth="1"/>
     <col min="7" max="32" width="4.125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="5.33035714285714" style="1" customWidth="1"/>
-    <col min="34" max="34" width="5.66964285714286" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9.33035714285714" style="1" customWidth="1"/>
-    <col min="36" max="37" width="3.66964285714286" style="1" customWidth="1"/>
-    <col min="38" max="38" width="19.5" style="1" customWidth="1"/>
-    <col min="39" max="39" width="3.66964285714286" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="3.66964285714286" style="1"/>
+    <col min="33" max="35" width="5.64285714285714" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9.33035714285714" style="1" customWidth="1"/>
+    <col min="37" max="38" width="3.66964285714286" style="1" customWidth="1"/>
+    <col min="39" max="39" width="19.5" style="1" customWidth="1"/>
+    <col min="40" max="40" width="3.66964285714286" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="3.66964285714286" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:35">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:36">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
     </row>
-    <row r="2" ht="25" customHeight="1" spans="1:35">
-      <c r="A2" s="8" t="s">
+    <row r="2" ht="25" customHeight="1" spans="1:36">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:38">
+    <row r="3" ht="20" customHeight="1" spans="1:39">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1230,11 +1280,14 @@
       <c r="AI3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="AM3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="1:35">
+    <row r="4" ht="20" customHeight="1" spans="1:36">
       <c r="A4" s="3"/>
       <c r="B4" s="3">
         <v>1</v>
@@ -1332,17 +1385,19 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:AI1"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="AC2:AH2"/>
     <mergeCell ref="B3:AF3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="AH3:AH4"/>
     <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1352,32 +1407,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AI4"/>
+      <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.66964285714286" defaultRowHeight="8.8" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9.33035714285714" style="1" customWidth="1"/>
-    <col min="2" max="32" width="4.66964285714286" style="1" customWidth="1"/>
-    <col min="33" max="33" width="5.33035714285714" style="1" customWidth="1"/>
-    <col min="34" max="34" width="5.66964285714286" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9.33035714285714" style="1" customWidth="1"/>
-    <col min="36" max="36" width="3.66964285714286" style="1" customWidth="1"/>
-    <col min="37" max="37" width="19.5" style="1" customWidth="1"/>
-    <col min="38" max="16383" width="3.66964285714286" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="3.66964285714286" style="1"/>
+    <col min="2" max="33" width="4.66964285714286" style="1" customWidth="1"/>
+    <col min="34" max="34" width="5.33035714285714" style="1" customWidth="1"/>
+    <col min="35" max="35" width="5.66964285714286" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9.33035714285714" style="1" customWidth="1"/>
+    <col min="37" max="37" width="3.66964285714286" style="1" customWidth="1"/>
+    <col min="38" max="38" width="19.5" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="3.66964285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:35">
+    <row r="1" ht="20" customHeight="1" spans="1:36">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1410,11 +1464,12 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
-      <c r="AI1" s="3"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="3"/>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:35">
+    <row r="2" ht="20" customHeight="1" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -1450,10 +1505,11 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:35">
+    <row r="3" ht="20" customHeight="1" spans="1:36">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1486,15 +1542,16 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
-      <c r="AG3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
+      <c r="AG3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="3"/>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="1:35">
+    <row r="4" ht="20" customHeight="1" spans="1:36">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1504,7 +1561,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1519,7 +1576,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
@@ -1530,26 +1587,27 @@
       <c r="AC4" s="5"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:AH1"/>
+    <mergeCell ref="C1:AI1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:AH2"/>
+    <mergeCell ref="C2:AI2"/>
     <mergeCell ref="A3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="AE4:AI4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1561,21 +1619,20 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI18" sqref="AI18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF$1:AF$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.66964285714286" defaultRowHeight="8.8"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="32" width="4.64285714285714" style="1" customWidth="1"/>
-    <col min="33" max="33" width="5.33035714285714" style="1" customWidth="1"/>
-    <col min="34" max="34" width="5.66964285714286" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9.33035714285714" style="1" customWidth="1"/>
-    <col min="36" max="37" width="3.66964285714286" style="1" customWidth="1"/>
-    <col min="38" max="38" width="19.5" style="1" customWidth="1"/>
-    <col min="39" max="39" width="3.66964285714286" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="3.66964285714286" style="1"/>
+    <col min="33" max="35" width="5.64285714285714" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9.33035714285714" style="1" customWidth="1"/>
+    <col min="37" max="38" width="3.66964285714286" style="1" customWidth="1"/>
+    <col min="39" max="39" width="19.5" style="1" customWidth="1"/>
+    <col min="40" max="40" width="3.66964285714286" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="3.66964285714286" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
